--- a/medicine/Psychotrope/La_Mort_d'un_maître_de_thé/La_Mort_d'un_maître_de_thé.xlsx
+++ b/medicine/Psychotrope/La_Mort_d'un_maître_de_thé/La_Mort_d'un_maître_de_thé.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>La_Mort_d%27un_ma%C3%AEtre_de_th%C3%A9</t>
+          <t>La_Mort_d'un_maître_de_thé</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Mort d'un maître de thé (千利休 本覺坊遺文, Sen no Rikyū: Honkakubō ibun?) est un film japonais réalisé par Kei Kumai, sorti en 1989 et adapté du roman Le Maître de thé de Yasushi Inoue.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>La_Mort_d%27un_ma%C3%AEtre_de_th%C3%A9</t>
+          <t>La_Mort_d'un_maître_de_thé</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -519,7 +533,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>La_Mort_d%27un_ma%C3%AEtre_de_th%C3%A9</t>
+          <t>La_Mort_d'un_maître_de_thé</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -537,7 +551,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : La Mort d'un maître de thé
 Titre original : 千利休 本覺坊遺文 (Sen no Rikyū: Honkakubō ibun?)
@@ -557,11 +573,11 @@
 Langue originale : japonais
 Format : couleurs — 2,35:1 — 35 mm
 Genre : drame - film historique
-Durée : 107 minutes[1] (métrage : 2 955 m[1])
+Durée : 107 minutes (métrage : 2 955 m)
 Dates de sortie :
-Japon : 7 octobre 1989[1]
-États-Unis : juin 1990[2]
-France : 25 septembre 1991[3]</t>
+Japon : 7 octobre 1989
+États-Unis : juin 1990
+France : 25 septembre 1991</t>
         </is>
       </c>
     </row>
@@ -571,7 +587,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>La_Mort_d%27un_ma%C3%AEtre_de_th%C3%A9</t>
+          <t>La_Mort_d'un_maître_de_thé</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -589,7 +605,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Eiji Okuda : Honkakubo
 Toshirō Mifune : Sen no Rikyū
@@ -605,7 +623,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>La_Mort_d%27un_ma%C3%AEtre_de_th%C3%A9</t>
+          <t>La_Mort_d'un_maître_de_thé</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -623,17 +641,88 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve"> Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section peuvent être confirmées par la base de données IMDb.
-Récompenses
-1989 : Lion d'argent à la Mostra de Venise[4]
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>La_Mort_d'un_maître_de_thé</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/La_Mort_d%27un_ma%C3%AEtre_de_th%C3%A9</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Distinctions</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Récompenses</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>1989 : Lion d'argent à la Mostra de Venise
 1989 : Nikkan Sports Film Award du meilleur acteur pour Eiji Okuda
 1989 : Silver Hugo du meilleur film au Festival international du film de Chicago
 1990 : prix Kinema Junpō du meilleur scénario pour Yoshikata Yoda
-1990 : prix du meilleur éclairage pour Yasuo Iwaki à la Japan Academy Prize
-Sélections
-1990 : le film a été sélectionné pour les prix du meilleur film, du meilleur acteur (Eiji Okuda), du meilleur acteur dans un second rôle (Kinnosuke Nakamura), du meilleur réalisateur (Kei Kumai), du meilleur scénario (Yoshikata Yoda), de la meilleure photographie (Masao Tochizawa), du meilleur montage (Osamu Inoue), des meilleurs décors (Takeo Kimura), de la meilleure musique (Teizō Matsumura) ainsi que du meilleur son (Yukio Kubota) à la Japan Academy Prize</t>
+1990 : prix du meilleur éclairage pour Yasuo Iwaki à la Japan Academy Prize</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>La_Mort_d'un_maître_de_thé</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/La_Mort_d%27un_ma%C3%AEtre_de_th%C3%A9</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Distinctions</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Sélections</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>1990 : le film a été sélectionné pour les prix du meilleur film, du meilleur acteur (Eiji Okuda), du meilleur acteur dans un second rôle (Kinnosuke Nakamura), du meilleur réalisateur (Kei Kumai), du meilleur scénario (Yoshikata Yoda), de la meilleure photographie (Masao Tochizawa), du meilleur montage (Osamu Inoue), des meilleurs décors (Takeo Kimura), de la meilleure musique (Teizō Matsumura) ainsi que du meilleur son (Yukio Kubota) à la Japan Academy Prize</t>
         </is>
       </c>
     </row>
